--- a/biology/Virologie/Mammarenavirus/Mammarenavirus.xlsx
+++ b/biology/Virologie/Mammarenavirus/Mammarenavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammarenavirus, précédemment Arenavirus du latin arena (sable), est un genre de virus de la famille des Arenaviridae. Ce nom est une contraction de « mammifère » avec l'ancien genre Arenavirus pour distinguer ces virus de ceux affectant les reptiles et appelés Reptarenavirus[2].  Jusqu'en 2014, le genre était connu sous le nom d'Arenavirus ; il a été changé en Mammarenavirus pour éviter toute confusion avec le nom de la famille à laquelle il appartient.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mammarenavirus, précédemment Arenavirus du latin arena (sable), est un genre de virus de la famille des Arenaviridae. Ce nom est une contraction de « mammifère » avec l'ancien genre Arenavirus pour distinguer ces virus de ceux affectant les reptiles et appelés Reptarenavirus.  Jusqu'en 2014, le genre était connu sous le nom d'Arenavirus ; il a été changé en Mammarenavirus pour éviter toute confusion avec le nom de la famille à laquelle il appartient.
 Ce sont des virus à ARN de 110 à 130 nm qui acquièrent leur enveloppe par bourgeonnement au travers de la membrane de la cellule infectée : l'aspect granuleux de certaines particules présentes à l'intérieur du cytoplasme des cellules infectées — visible par microscope électronique — font penser à du sable.
 Le virus admet généralement un hôte rongeur spécifique, qui joue le rôle de réservoir naturel pour le virus. Certains d'entre eux sont à l'origine de zoonoses pouvant causer des fièvres hémorragiques graves comme :
 la fièvre de Lassa ;
